--- a/data/trans_bre/P57_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P57_R2-Edad-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>0.2464134029392606</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-7.971518279470802</v>
+        <v>-7.97151827947078</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>0.005678200136609057</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>-0.1209634231512847</v>
+        <v>-0.1209634231512845</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.245881725168189</v>
+        <v>-6.460946407821508</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-17.54586508632546</v>
+        <v>-18.22125458763836</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.1321952310469106</v>
+        <v>-0.1381040929970016</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.2507671525092341</v>
+        <v>-0.2577758414774246</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.354071838311752</v>
+        <v>7.079600247302461</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.323141315671223</v>
+        <v>1.839974258183255</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.1905866948033687</v>
+        <v>0.1763396117134042</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.03856246851166334</v>
+        <v>0.03000272367118792</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.229154978736157</v>
+        <v>-3.686155727580752</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-6.852325286525137</v>
+        <v>-6.770910621219</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.09118072214183159</v>
+        <v>-0.1011637943058906</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1148059945312869</v>
+        <v>-0.1144890109788212</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>8.146125472036085</v>
+        <v>8.015474813108613</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.223117143771049</v>
+        <v>8.666546193081654</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2716095059996215</v>
+        <v>0.2651600394907498</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.165936800653014</v>
+        <v>0.180205315786816</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.126207225902075</v>
+        <v>-8.165567301925607</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.40608178707938</v>
+        <v>-5.519599812359978</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.2242248878475048</v>
+        <v>-0.224915336299938</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.09928729690470173</v>
+        <v>-0.1038457676473559</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.336352994772654</v>
+        <v>2.668280492817826</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.721658896713399</v>
+        <v>5.196632752743413</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.07416673390109679</v>
+        <v>0.08604621988619322</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.1215992403699154</v>
+        <v>0.1097041296525529</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>-4.25291166133522</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-7.024672668869847</v>
+        <v>-7.024672668869841</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.1597060811072646</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.1539200161850338</v>
+        <v>-0.1539200161850337</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-9.255518058534973</v>
+        <v>-8.754836279427044</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-11.78964169634719</v>
+        <v>-11.59980996661588</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3234166054149855</v>
+        <v>-0.3090390059385632</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2435813090313219</v>
+        <v>-0.2384407090224654</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.927743065109099</v>
+        <v>0.9262687772321431</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-2.083695382745976</v>
+        <v>-2.212373582019352</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.03584637950145218</v>
+        <v>0.03857904043908209</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.05071968638613795</v>
+        <v>-0.0521606424675706</v>
       </c>
     </row>
     <row r="16">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-11.88003688544888</v>
+        <v>-11.31361418790905</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-8.07493275420436</v>
+        <v>-8.977537938080216</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.4115185516667491</v>
+        <v>-0.403678950459649</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.2138860760120202</v>
+        <v>-0.2340292611871433</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.3751467835089263</v>
+        <v>-0.7264044657747698</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.403999048908578</v>
+        <v>1.059119417188257</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>-0.0112243749665907</v>
+        <v>-0.03313891540476056</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.04574679560618015</v>
+        <v>0.03216995182634205</v>
       </c>
     </row>
     <row r="19">
@@ -912,13 +912,13 @@
         <v>-8.141998875075052</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>-6.499168943710987</v>
+        <v>-6.499168943710981</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>-0.3300115375641812</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>-0.1615757766078586</v>
+        <v>-0.1615757766078584</v>
       </c>
     </row>
     <row r="20">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-14.09586897444842</v>
+        <v>-14.16033171978056</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-11.78135131886574</v>
+        <v>-11.30894857120215</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5040937703164494</v>
+        <v>-0.5156728200317604</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2743111761853301</v>
+        <v>-0.2615039178430811</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-2.244841639734842</v>
+        <v>-1.783122441319284</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-1.322137467884538</v>
+        <v>-0.8598985831791399</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.09972646651563698</v>
+        <v>-0.08316207495509295</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.03482149754497466</v>
+        <v>-0.02049677066152344</v>
       </c>
     </row>
     <row r="22">
@@ -976,13 +976,13 @@
         <v>-5.535645867899067</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-7.12744739185135</v>
+        <v>-7.127447391851355</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>-0.2965137971428062</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>-0.2180506897399325</v>
+        <v>-0.2180506897399326</v>
       </c>
     </row>
     <row r="23">
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-11.98264080924204</v>
+        <v>-11.6752265903876</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-12.77869211437726</v>
+        <v>-12.81538963524909</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>-0.5418816783230409</v>
+        <v>-0.5240822385802917</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.3476400545343513</v>
+        <v>-0.346594306782624</v>
       </c>
     </row>
     <row r="24">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1915012093401612</v>
+        <v>0.1909852388333981</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1.921949923669428</v>
+        <v>-2.098977311444438</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>0.03649008457656056</v>
+        <v>0.06202943171922329</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>-0.06426979507932713</v>
+        <v>-0.06569610902346081</v>
       </c>
     </row>
     <row r="25">
@@ -1040,13 +1040,13 @@
         <v>-4.030700135592907</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>-5.169056100473258</v>
+        <v>-5.169056100473246</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>-0.1327886165698864</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>-0.1113835061096278</v>
+        <v>-0.1113835061096276</v>
       </c>
     </row>
     <row r="26">
@@ -1057,16 +1057,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-6.244448735647133</v>
+        <v>-6.326357034639615</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-7.466309657557109</v>
+        <v>-7.571650717482924</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1977392612850854</v>
+        <v>-0.1996711184983262</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1553253141168881</v>
+        <v>-0.1585434651598945</v>
       </c>
     </row>
     <row r="27">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-1.66974437097797</v>
+        <v>-1.802578041685608</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-2.697910247774589</v>
+        <v>-2.797151560489563</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.05473741067361538</v>
+        <v>-0.06138283685088858</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.05990935484902529</v>
+        <v>-0.06262575578845561</v>
       </c>
     </row>
     <row r="28">
